--- a/Yino-Tech-ngày-copy.xlsx
+++ b/Yino-Tech-ngày-copy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>Account name</t>
   </si>
@@ -74,7 +74,7 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-05-18</t>
+    <t>2024-05-23</t>
   </si>
   <si>
     <t>Advantage+ shopping campaign_Top Sale_22/12</t>
@@ -83,52 +83,58 @@
     <t>Advantage+ shopping campaign_Top Sale_15/12 Ad Set</t>
   </si>
   <si>
+    <t>Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Shorts_UBYN106ELE2378WP_15/06/23</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Short</t>
+  </si>
+  <si>
+    <t>Apparently We're Trouble When We Are Together Who Knew Best Friends - Bestie BFF Gift - Personalized Custom T Shirt_TSAK500NAH1349WP_14/04</t>
+  </si>
+  <si>
+    <t>03/10_Thuan_Target chinhsWW_female</t>
+  </si>
+  <si>
     <t>Advantage+ shopping campaign_Top Sale_15/12 Campaign</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Partners In Crime Just Remember If We Get Caught Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUNV538NAH1943WP_31/12</t>
   </si>
   <si>
     <t>Target chính_WW_Partners In Crime Just Remember If We Get Caught Best Friends - Bestie BFF Gift - Personalized Custom Tumbler</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Apparently We're Trouble When We Are Together Who Knew Best Friends - Bestie BFF Gift - Personalized Custom T Shirt_TSAK500NAH1349WP_14/04</t>
-  </si>
-  <si>
-    <t>03/10_Thuan_Target chinhsWW_female</t>
-  </si>
-  <si>
-    <t>Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Shorts_UBYN106ELE2378WP_15/06/23</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Short</t>
+    <t>Reopen 21/05/24_Poolside Grilling Listen To The Good Music Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs_MSHM324NAH1202WP_16/02</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Poolside Grilling Listen To The Good Music Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs targetww</t>
+  </si>
+  <si>
+    <t>Target chính_US_Poolside Grilling Listen To The Good Music Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs targetus</t>
+  </si>
+  <si>
+    <t>SwimmingxMarried targetus</t>
+  </si>
+  <si>
+    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUVA470NAH1355WP_25/04</t>
+  </si>
+  <si>
+    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler targetww</t>
+  </si>
+  <si>
+    <t>Runagain_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK477NAH1248WP_28/12</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs</t>
   </si>
   <si>
     <t>Here's To Another Year Of Bonding Over Alcohol Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUBD466NAH1122WP_07/01</t>
   </si>
   <si>
     <t>Here's To Another Year Of Bonding Over Alcohol Best Friends - Bestie BFF Gift - Personalized Custom Tumbler targetww</t>
-  </si>
-  <si>
-    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUVA470NAH1355WP_25/04</t>
-  </si>
-  <si>
-    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler targetww</t>
-  </si>
-  <si>
-    <t>Runagain_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK477NAH1248WP_28/12</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>Black Rose Sibling Congrats On Being My Brother - Gift For Sibling - Personalized Black Mug_MUGT273CIN1509WP_11/08/23</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Black Rose Sibling Congrats On Being My Brother - Gift For Sibling - Personalized Black Mug</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -551,19 +557,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>46218.0</v>
+        <v>63660.0</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>48895.0</v>
+        <v>69817.0</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>1.05792116</v>
+        <v>1.09671693</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>308.95</v>
+        <v>484.3</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>18</v>
@@ -572,10 +578,10 @@
         <v>19</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>14.71190476</v>
+        <v>18.62692308</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>20</v>
@@ -595,19 +601,19 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>20038.0</v>
+        <v>17882.0</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>22049.0</v>
+        <v>18767.0</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>1.10035932</v>
+        <v>1.04949111</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="8" t="n">
-        <v>153.05</v>
+        <v>146.6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>18</v>
@@ -619,7 +625,7 @@
         <v>10.0</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>15.305</v>
+        <v>14.66</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>20</v>
@@ -636,22 +642,22 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>5532.0</v>
+        <v>3404.0</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>6061.0</v>
+        <v>3789.0</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>1.09562545</v>
+        <v>1.11310223</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>29.01</v>
+        <v>42.41</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>18</v>
@@ -663,7 +669,7 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>29.01</v>
+        <v>42.41</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>20</v>
@@ -677,25 +683,25 @@
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>5437.0</v>
+        <v>4697.0</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>5764.0</v>
+        <v>5226.0</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>1.06014346</v>
+        <v>1.11262508</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="8" t="n">
-        <v>19.81</v>
+        <v>39.3</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>18</v>
@@ -703,11 +709,11 @@
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
+      <c r="K5" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>19.65</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>20</v>
@@ -724,22 +730,22 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3286.0</v>
+        <v>4221.0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3665.0</v>
+        <v>4600.0</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>1.1153378</v>
+        <v>1.08978915</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>19.75</v>
+        <v>29.37</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>18</v>
@@ -747,11 +753,11 @@
       <c r="J6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>9.875</v>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>20</v>
@@ -771,19 +777,19 @@
         <v>30</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1495.0</v>
+        <v>3316.0</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1664.0</v>
+        <v>3600.0</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>1.11304348</v>
+        <v>1.08564536</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>11.79</v>
+        <v>18.13</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>18</v>
@@ -795,7 +801,7 @@
         <v>2.0</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>5.895</v>
+        <v>9.065</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>20</v>
@@ -815,19 +821,19 @@
         <v>32</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>952.0</v>
+        <v>692.0</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1046.0</v>
+        <v>773.0</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>1.0987395</v>
+        <v>1.11705202</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="8" t="n">
-        <v>7.44</v>
+        <v>10.11</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>18</v>
@@ -836,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>20</v>
@@ -853,25 +859,25 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="6" t="n">
-        <v>414.0</v>
+        <v>566.0</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>472.0</v>
+        <v>626.0</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>1.14009662</v>
+        <v>1.10600707</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>6.91</v>
+        <v>9.93</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>18</v>
@@ -880,10 +886,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>20</v>
@@ -897,25 +903,25 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>323.0</v>
+        <v>601.0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>360.0</v>
+        <v>680.0</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>1.11455108</v>
+        <v>1.13144759</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>3.75</v>
+        <v>8.44</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
@@ -924,10 +930,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>20</v>
@@ -941,42 +947,130 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1.08294931</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>447.0</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>506.0</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>1.13199105</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="9" t="s">
+      <c r="D12" s="6" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>1.09569378</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>599.0</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.12806026</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
